--- a/results/gurobi_cplex_comparison/seed_20_k_15.xlsx
+++ b/results/gurobi_cplex_comparison/seed_20_k_15.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.007</v>
+        <v>0.419</v>
       </c>
       <c r="F2">
-        <v>0.019</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.029</v>
+        <v>0.65</v>
       </c>
       <c r="F3">
-        <v>0.053</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.029</v>
+        <v>0.862</v>
       </c>
       <c r="F4">
-        <v>0.036</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.053</v>
+        <v>1.151</v>
       </c>
       <c r="F5">
-        <v>0.066</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.044</v>
+        <v>1.426</v>
       </c>
       <c r="F6">
-        <v>0.07000000000000001</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.024</v>
+        <v>1.764</v>
       </c>
       <c r="F7">
-        <v>0.046</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.014</v>
+        <v>2.041</v>
       </c>
       <c r="F8">
-        <v>0.037</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.064</v>
+        <v>2.446</v>
       </c>
       <c r="F9">
-        <v>0.124</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.031</v>
+        <v>2.835</v>
       </c>
       <c r="F10">
-        <v>0.07199999999999999</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.022</v>
+        <v>3.257</v>
       </c>
       <c r="F11">
-        <v>0.047</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.022</v>
+        <v>3.737</v>
       </c>
       <c r="F12">
-        <v>0.058</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.122</v>
+        <v>4.361</v>
       </c>
       <c r="F13">
-        <v>79.506</v>
+        <v>24.273</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.041</v>
+        <v>4.865</v>
       </c>
       <c r="F14">
-        <v>113.026</v>
+        <v>8.003</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.101</v>
+        <v>5.771</v>
       </c>
       <c r="F15">
-        <v>80.563</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.077</v>
+        <v>6.224</v>
       </c>
       <c r="F16">
-        <v>113.59</v>
+        <v>14.636</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.056</v>
+        <v>7.117</v>
       </c>
       <c r="F17">
-        <v>135.51</v>
+        <v>7.06</v>
       </c>
     </row>
   </sheetData>
